--- a/KhaoSatChuyenNganhCNTT.xlsx
+++ b/KhaoSatChuyenNganhCNTT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\môn 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13325D-6554-419F-934C-93BECDB2663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7B8259-AC17-464A-92B1-87679DC309CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9D2AE40-29EC-4D4E-A963-A9342A2EC6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -710,10 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF748AB0-BCFF-4097-A7E9-E46F32701D01}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +807,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -841,7 +845,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -879,7 +883,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -917,7 +921,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -955,7 +959,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -993,7 +997,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>Rất phù hợp</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>Cần tìm hiểu thêm</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1510,6 +1514,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G41" xr:uid="{DF748AB0-BCFF-4097-A7E9-E46F32701D01}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Phát triển phần mềm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3113ECFF-D24F-4E9D-987B-79264910B64A}"/>
